--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1361862.596139276</v>
+        <v>1358138.248973934</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2284470.912813046</v>
+        <v>2327352.09650927</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9675393.531867707</v>
+        <v>9671039.412599115</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>214.6785685794572</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>133.2377937633214</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -786,10 +786,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>20.14150311368304</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>7.38312902419022</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4178928586279</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>164.011620280458</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>132.901574450224</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>224.5902785616939</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>53.18351180702528</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>94.52264467269787</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>275.5886106635689</v>
+        <v>188.1792849248196</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>145.6763694867084</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>90.49856892715118</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313.8343050701095</v>
+        <v>316.939476783036</v>
       </c>
       <c r="C11" t="n">
-        <v>306.5882532979253</v>
+        <v>309.6934250108517</v>
       </c>
       <c r="D11" t="n">
-        <v>298.9312243113255</v>
+        <v>302.036396024252</v>
       </c>
       <c r="E11" t="n">
-        <v>315.9021964504475</v>
+        <v>319.0073681633739</v>
       </c>
       <c r="F11" t="n">
-        <v>330.0700009011486</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>326.3756347727034</v>
+        <v>329.4808064856298</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.2918984579273</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.40342426721284</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.19292632418653</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>138.6101032320041</v>
+        <v>141.7152749449305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>89.1088535168966</v>
       </c>
       <c r="V11" t="n">
-        <v>256.0302480193434</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>32.09109791091849</v>
+        <v>287.7387232101485</v>
       </c>
       <c r="X11" t="n">
-        <v>302.9025858321003</v>
+        <v>306.0077575450267</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.8703088044315</v>
+        <v>312.9754805173579</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.7004453202149</v>
+        <v>103.8056170331413</v>
       </c>
       <c r="C13" t="n">
-        <v>85.84757357049726</v>
+        <v>88.9527452834237</v>
       </c>
       <c r="D13" t="n">
-        <v>71.42128878233699</v>
+        <v>63.40952040175923</v>
       </c>
       <c r="E13" t="n">
-        <v>71.3477308352161</v>
+        <v>74.45290254814253</v>
       </c>
       <c r="F13" t="n">
-        <v>73.09718225498337</v>
+        <v>76.2023539679098</v>
       </c>
       <c r="G13" t="n">
-        <v>83.9160201773755</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.37344405687398</v>
       </c>
       <c r="I13" t="n">
-        <v>49.10798792511947</v>
+        <v>52.21315963804591</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.1324297951027</v>
+        <v>121.2376015080291</v>
       </c>
       <c r="T13" t="n">
-        <v>150.7063681292748</v>
+        <v>153.8115398422012</v>
       </c>
       <c r="U13" t="n">
-        <v>40.94957470782556</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.6640585432106</v>
+        <v>183.769230256137</v>
       </c>
       <c r="W13" t="n">
-        <v>197.8416048639608</v>
+        <v>200.9467765768872</v>
       </c>
       <c r="X13" t="n">
-        <v>149.0840258106733</v>
+        <v>152.1891975235997</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.2254473873497</v>
+        <v>141.3306191002761</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>313.8343050701095</v>
+        <v>197.2510461209618</v>
       </c>
       <c r="C14" t="n">
-        <v>306.5882532979252</v>
+        <v>309.6934250108517</v>
       </c>
       <c r="D14" t="n">
-        <v>298.9312243113255</v>
+        <v>302.036396024252</v>
       </c>
       <c r="E14" t="n">
-        <v>315.9021964504474</v>
+        <v>319.0073681633739</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>333.175172614075</v>
       </c>
       <c r="G14" t="n">
-        <v>326.3756347727034</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>238.1867267450008</v>
+        <v>241.2918984579273</v>
       </c>
       <c r="I14" t="n">
-        <v>54.29825255428638</v>
+        <v>57.40342426721284</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.1929263241865</v>
+        <v>85.29809803711296</v>
       </c>
       <c r="T14" t="n">
-        <v>62.98327096641974</v>
+        <v>141.7152749449305</v>
       </c>
       <c r="U14" t="n">
-        <v>170.5397090855739</v>
+        <v>173.6448807985004</v>
       </c>
       <c r="V14" t="n">
-        <v>256.0302480193433</v>
+        <v>259.1354197322698</v>
       </c>
       <c r="W14" t="n">
-        <v>284.633551497222</v>
+        <v>287.7387232101485</v>
       </c>
       <c r="X14" t="n">
-        <v>302.9025858321003</v>
+        <v>306.0077575450267</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.7004453202148</v>
+        <v>103.8056170331413</v>
       </c>
       <c r="C16" t="n">
-        <v>43.95441225603072</v>
+        <v>88.9527452834237</v>
       </c>
       <c r="D16" t="n">
-        <v>71.42128878233696</v>
+        <v>74.52646049526342</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>74.45290254814253</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>87.02119189030194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.26827234394752</v>
+        <v>74.37344405687398</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10798792511945</v>
+        <v>52.21315963804591</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.00648628957536</v>
+        <v>43.11165800250183</v>
       </c>
       <c r="S16" t="n">
-        <v>118.1324297951027</v>
+        <v>121.2376015080291</v>
       </c>
       <c r="T16" t="n">
-        <v>150.7063681292748</v>
+        <v>153.8115398422012</v>
       </c>
       <c r="U16" t="n">
-        <v>199.9289106563446</v>
+        <v>203.0340823692711</v>
       </c>
       <c r="V16" t="n">
-        <v>180.6640585432106</v>
+        <v>183.769230256137</v>
       </c>
       <c r="W16" t="n">
-        <v>197.8416048639607</v>
+        <v>200.9467765768872</v>
       </c>
       <c r="X16" t="n">
-        <v>149.0840258106733</v>
+        <v>25.43829823620689</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.2254473873496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,7 +1853,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412925</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422874632</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541626</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
         <v>236.9290753658111</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978639</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,7 +2090,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412925</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
         <v>236.9290753658111</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978639</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2606,10 +2606,10 @@
         <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>29.60166801680148</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2618,7 +2618,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>103.5883345274851</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>14.18792904510147</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.8315087684104</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3041,13 +3041,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H32" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3089,10 +3089,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y32" t="n">
         <v>262.1658326730205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U34" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W34" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,7 +3512,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412925</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
         <v>236.9290753658111</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1467.131392264007</v>
+        <v>1792.607762334935</v>
       </c>
       <c r="C2" t="n">
-        <v>1073.955890766938</v>
+        <v>1792.607762334935</v>
       </c>
       <c r="D2" t="n">
-        <v>1073.955890766938</v>
+        <v>1407.166633551603</v>
       </c>
       <c r="E2" t="n">
-        <v>671.3723658834822</v>
+        <v>1004.583108668147</v>
       </c>
       <c r="F2" t="n">
-        <v>454.5253269143335</v>
+        <v>587.6886701981251</v>
       </c>
       <c r="G2" t="n">
-        <v>41.36257140233667</v>
+        <v>174.5259146861283</v>
       </c>
       <c r="H2" t="n">
-        <v>41.36257140233667</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="I2" t="n">
-        <v>41.36257140233667</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J2" t="n">
-        <v>186.0123443111648</v>
+        <v>171.7389301975733</v>
       </c>
       <c r="K2" t="n">
-        <v>544.9947003386267</v>
+        <v>530.7212862250351</v>
       </c>
       <c r="L2" t="n">
-        <v>1038.314992057155</v>
+        <v>1024.041577943564</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.314992057155</v>
+        <v>1024.041577943564</v>
       </c>
       <c r="N2" t="n">
-        <v>1550.176813161072</v>
+        <v>1024.041577943564</v>
       </c>
       <c r="O2" t="n">
-        <v>1550.176813161072</v>
+        <v>1464.081178835892</v>
       </c>
       <c r="P2" t="n">
-        <v>1883.283009975885</v>
+        <v>1812.268670967414</v>
       </c>
       <c r="Q2" t="n">
-        <v>2068.128570116834</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="R2" t="n">
-        <v>2030.135656402355</v>
+        <v>1959.121317393885</v>
       </c>
       <c r="S2" t="n">
-        <v>1863.622101343406</v>
+        <v>1792.607762334935</v>
       </c>
       <c r="T2" t="n">
-        <v>1863.622101343406</v>
+        <v>1792.607762334935</v>
       </c>
       <c r="U2" t="n">
-        <v>1863.622101343406</v>
+        <v>1792.607762334935</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.622101343406</v>
+        <v>1792.607762334935</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.622101343406</v>
+        <v>1792.607762334935</v>
       </c>
       <c r="X2" t="n">
-        <v>1863.622101343406</v>
+        <v>1792.607762334935</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467.131392264007</v>
+        <v>1792.607762334935</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.7285545423676</v>
+        <v>839.3082677621983</v>
       </c>
       <c r="C3" t="n">
-        <v>690.0743241024599</v>
+        <v>688.6540373222905</v>
       </c>
       <c r="D3" t="n">
-        <v>559.9853567239402</v>
+        <v>558.5650699437708</v>
       </c>
       <c r="E3" t="n">
-        <v>423.5388658348279</v>
+        <v>422.1185790546585</v>
       </c>
       <c r="F3" t="n">
-        <v>299.1070597179597</v>
+        <v>297.6867729377903</v>
       </c>
       <c r="G3" t="n">
-        <v>179.0472417898242</v>
+        <v>177.6269550096548</v>
       </c>
       <c r="H3" t="n">
-        <v>90.74982539042509</v>
+        <v>89.32953861025567</v>
       </c>
       <c r="I3" t="n">
-        <v>41.36257140233667</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J3" t="n">
-        <v>41.36257140233667</v>
+        <v>153.0572668418946</v>
       </c>
       <c r="K3" t="n">
-        <v>41.36257140233667</v>
+        <v>472.7964129041211</v>
       </c>
       <c r="L3" t="n">
-        <v>126.9217380886872</v>
+        <v>472.7964129041211</v>
       </c>
       <c r="M3" t="n">
-        <v>638.7835591926034</v>
+        <v>967.0821851034409</v>
       </c>
       <c r="N3" t="n">
-        <v>1150.64538029652</v>
+        <v>1357.127770837075</v>
       </c>
       <c r="O3" t="n">
-        <v>1662.507201400436</v>
+        <v>1357.127770837075</v>
       </c>
       <c r="P3" t="n">
-        <v>2068.128570116834</v>
+        <v>1762.749139553472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2068.128570116834</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="R3" t="n">
-        <v>2044.211527014898</v>
+        <v>1973.197188006427</v>
       </c>
       <c r="S3" t="n">
-        <v>2023.866574374814</v>
+        <v>1838.266510906296</v>
       </c>
       <c r="T3" t="n">
-        <v>2023.866574374814</v>
+        <v>1661.282699105205</v>
       </c>
       <c r="U3" t="n">
-        <v>1813.803431053456</v>
+        <v>1451.219555783846</v>
       </c>
       <c r="V3" t="n">
-        <v>1591.263429424523</v>
+        <v>1228.679554154913</v>
       </c>
       <c r="W3" t="n">
-        <v>1361.14618355781</v>
+        <v>998.5623082882003</v>
       </c>
       <c r="X3" t="n">
-        <v>1171.839105907822</v>
+        <v>998.5623082882003</v>
       </c>
       <c r="Y3" t="n">
-        <v>992.524888983329</v>
+        <v>991.1046022031596</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2068.128570116834</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="C4" t="n">
-        <v>2068.128570116834</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="D4" t="n">
-        <v>1936.393324805088</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="E4" t="n">
-        <v>1780.834512664291</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="F4" t="n">
-        <v>1623.508577877264</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="G4" t="n">
-        <v>1455.254523976709</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="H4" t="n">
-        <v>1299.775972938203</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="I4" t="n">
-        <v>1166.681547575281</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J4" t="n">
-        <v>1166.681547575281</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="K4" t="n">
-        <v>1248.516588685223</v>
+        <v>121.7773257321091</v>
       </c>
       <c r="L4" t="n">
-        <v>1412.644228559023</v>
+        <v>285.9049656059089</v>
       </c>
       <c r="M4" t="n">
-        <v>1598.935806897287</v>
+        <v>472.196543944173</v>
       </c>
       <c r="N4" t="n">
-        <v>1782.125440928496</v>
+        <v>655.3861779753822</v>
       </c>
       <c r="O4" t="n">
-        <v>1944.830207970204</v>
+        <v>818.0909450170902</v>
       </c>
       <c r="P4" t="n">
-        <v>2064.706373746782</v>
+        <v>937.9671107936688</v>
       </c>
       <c r="Q4" t="n">
-        <v>2068.128570116834</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="R4" t="n">
-        <v>2068.128570116834</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="S4" t="n">
-        <v>2068.128570116834</v>
+        <v>775.7210038501258</v>
       </c>
       <c r="T4" t="n">
-        <v>2068.128570116834</v>
+        <v>540.0019520183599</v>
       </c>
       <c r="U4" t="n">
-        <v>2068.128570116834</v>
+        <v>540.0019520183599</v>
       </c>
       <c r="V4" t="n">
-        <v>2068.128570116834</v>
+        <v>274.0226068391842</v>
       </c>
       <c r="W4" t="n">
-        <v>2068.128570116834</v>
+        <v>274.0226068391842</v>
       </c>
       <c r="X4" t="n">
-        <v>2068.128570116834</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="Y4" t="n">
-        <v>2068.128570116834</v>
+        <v>39.94228462216726</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.502815817865</v>
+        <v>913.421237050143</v>
       </c>
       <c r="C5" t="n">
-        <v>1195.502815817865</v>
+        <v>520.2457355530735</v>
       </c>
       <c r="D5" t="n">
-        <v>1195.502815817865</v>
+        <v>520.2457355530735</v>
       </c>
       <c r="E5" t="n">
-        <v>1195.502815817865</v>
+        <v>520.2457355530735</v>
       </c>
       <c r="F5" t="n">
-        <v>778.6083773478429</v>
+        <v>507.3917011234553</v>
       </c>
       <c r="G5" t="n">
-        <v>365.4456218358461</v>
+        <v>498.2693496518625</v>
       </c>
       <c r="H5" t="n">
-        <v>41.36257140233667</v>
+        <v>174.1862992183532</v>
       </c>
       <c r="I5" t="n">
-        <v>41.36257140233667</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J5" t="n">
-        <v>186.0123443111648</v>
+        <v>184.5920575309954</v>
       </c>
       <c r="K5" t="n">
-        <v>544.9947003386267</v>
+        <v>543.5744135584572</v>
       </c>
       <c r="L5" t="n">
-        <v>1038.314992057155</v>
+        <v>543.5744135584572</v>
       </c>
       <c r="M5" t="n">
-        <v>1116.227148120589</v>
+        <v>969.7954066365726</v>
       </c>
       <c r="N5" t="n">
-        <v>1628.088969224505</v>
+        <v>1464.081178835892</v>
       </c>
       <c r="O5" t="n">
-        <v>2068.128570116834</v>
+        <v>1464.081178835892</v>
       </c>
       <c r="P5" t="n">
-        <v>2068.128570116834</v>
+        <v>1812.268670967414</v>
       </c>
       <c r="Q5" t="n">
-        <v>2068.128570116834</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="R5" t="n">
-        <v>2068.128570116834</v>
+        <v>1959.121317393885</v>
       </c>
       <c r="S5" t="n">
-        <v>1901.615015057884</v>
+        <v>1959.121317393885</v>
       </c>
       <c r="T5" t="n">
-        <v>1678.114412617301</v>
+        <v>1959.121317393885</v>
       </c>
       <c r="U5" t="n">
-        <v>1422.361683051899</v>
+        <v>1703.368587828483</v>
       </c>
       <c r="V5" t="n">
-        <v>1195.502815817865</v>
+        <v>1703.368587828483</v>
       </c>
       <c r="W5" t="n">
-        <v>1195.502815817865</v>
+        <v>1703.368587828483</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.502815817865</v>
+        <v>1313.91598276154</v>
       </c>
       <c r="Y5" t="n">
-        <v>1195.502815817865</v>
+        <v>1313.91598276154</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840.7285545423676</v>
+        <v>502.0617223746933</v>
       </c>
       <c r="C6" t="n">
-        <v>690.0743241024599</v>
+        <v>351.4074919347855</v>
       </c>
       <c r="D6" t="n">
-        <v>559.9853567239402</v>
+        <v>297.6867729377903</v>
       </c>
       <c r="E6" t="n">
-        <v>423.5388658348279</v>
+        <v>297.6867729377903</v>
       </c>
       <c r="F6" t="n">
-        <v>299.1070597179597</v>
+        <v>297.6867729377903</v>
       </c>
       <c r="G6" t="n">
-        <v>179.0472417898242</v>
+        <v>177.6269550096548</v>
       </c>
       <c r="H6" t="n">
-        <v>90.74982539042509</v>
+        <v>89.32953861025567</v>
       </c>
       <c r="I6" t="n">
-        <v>41.36257140233667</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J6" t="n">
-        <v>154.4775536220641</v>
+        <v>153.0572668418946</v>
       </c>
       <c r="K6" t="n">
-        <v>474.2166996842905</v>
+        <v>472.7964129041211</v>
       </c>
       <c r="L6" t="n">
-        <v>474.2166996842905</v>
+        <v>956.3624988024344</v>
       </c>
       <c r="M6" t="n">
-        <v>916.2802887416292</v>
+        <v>956.3624988024344</v>
       </c>
       <c r="N6" t="n">
-        <v>916.2802887416292</v>
+        <v>1357.127770837075</v>
       </c>
       <c r="O6" t="n">
-        <v>1428.142109845546</v>
+        <v>1357.127770837075</v>
       </c>
       <c r="P6" t="n">
-        <v>1833.763478561943</v>
+        <v>1762.749139553472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2068.128570116834</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="R6" t="n">
-        <v>2044.211527014898</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="S6" t="n">
-        <v>1909.280849914767</v>
+        <v>1862.183554008232</v>
       </c>
       <c r="T6" t="n">
-        <v>1909.280849914767</v>
+        <v>1685.19974220714</v>
       </c>
       <c r="U6" t="n">
-        <v>1813.803431053456</v>
+        <v>1475.136598885782</v>
       </c>
       <c r="V6" t="n">
-        <v>1591.263429424523</v>
+        <v>1252.596597256849</v>
       </c>
       <c r="W6" t="n">
-        <v>1361.14618355781</v>
+        <v>1022.479351390136</v>
       </c>
       <c r="X6" t="n">
-        <v>1171.839105907822</v>
+        <v>833.1722737401474</v>
       </c>
       <c r="Y6" t="n">
-        <v>992.524888983329</v>
+        <v>653.8580568156547</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="C7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="D7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="E7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="F7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="G7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="H7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="I7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J7" t="n">
-        <v>41.36257140233667</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="K7" t="n">
-        <v>123.1976125122785</v>
+        <v>121.7773257321091</v>
       </c>
       <c r="L7" t="n">
-        <v>287.3252523860783</v>
+        <v>285.9049656059089</v>
       </c>
       <c r="M7" t="n">
-        <v>473.6168307243423</v>
+        <v>472.196543944173</v>
       </c>
       <c r="N7" t="n">
-        <v>656.8064647555516</v>
+        <v>655.3861779753822</v>
       </c>
       <c r="O7" t="n">
-        <v>819.5112317972596</v>
+        <v>818.0909450170902</v>
       </c>
       <c r="P7" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936688</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="R7" t="n">
-        <v>818.9086045764661</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="S7" t="n">
-        <v>616.0925207590155</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="T7" t="n">
-        <v>616.0925207590155</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="U7" t="n">
-        <v>616.0925207590155</v>
+        <v>453.13443158817</v>
       </c>
       <c r="V7" t="n">
-        <v>350.1131755798398</v>
+        <v>453.13443158817</v>
       </c>
       <c r="W7" t="n">
-        <v>71.74084157623471</v>
+        <v>263.0543458055239</v>
       </c>
       <c r="X7" t="n">
-        <v>71.74084157623471</v>
+        <v>263.0543458055239</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.74084157623471</v>
+        <v>39.94228462216726</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.3701640835627</v>
+        <v>1927.160845651305</v>
       </c>
       <c r="C8" t="n">
-        <v>877.3701640835627</v>
+        <v>1533.985344154236</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>1148.544215370903</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>745.9606904874479</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>877.3701640835627</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.3701640835627</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1655.924491071338</v>
+        <v>1636.779045289214</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.23938673</v>
+        <v>1323.957403864111</v>
       </c>
       <c r="D11" t="n">
-        <v>1044.288655102398</v>
+        <v>1018.870135152746</v>
       </c>
       <c r="E11" t="n">
-        <v>725.1955273746734</v>
+        <v>696.6404703412569</v>
       </c>
       <c r="F11" t="n">
-        <v>391.7914860603819</v>
+        <v>696.6404703412569</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411573</v>
+        <v>363.8315749012268</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>120.1023845396841</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.933227302557</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2882.923022017705</v>
+        <v>2962.80964283716</v>
       </c>
       <c r="U11" t="n">
-        <v>2882.923022017705</v>
+        <v>2872.800699890799</v>
       </c>
       <c r="V11" t="n">
-        <v>2624.306609876954</v>
+        <v>2872.800699890799</v>
       </c>
       <c r="W11" t="n">
-        <v>2591.891359461885</v>
+        <v>2582.155524931053</v>
       </c>
       <c r="X11" t="n">
-        <v>2285.929151550672</v>
+        <v>2273.056779936077</v>
       </c>
       <c r="Y11" t="n">
-        <v>1972.928839627004</v>
+        <v>1956.919930928644</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>501.2482019925284</v>
+        <v>496.0626892153836</v>
       </c>
       <c r="C13" t="n">
-        <v>414.5334812142484</v>
+        <v>406.2114313533393</v>
       </c>
       <c r="D13" t="n">
-        <v>342.3907652724938</v>
+        <v>342.1614107455017</v>
       </c>
       <c r="E13" t="n">
-        <v>270.322350287427</v>
+        <v>266.9564586766708</v>
       </c>
       <c r="F13" t="n">
-        <v>196.4868126561307</v>
+        <v>189.9843839616104</v>
       </c>
       <c r="G13" t="n">
-        <v>111.7231559113069</v>
+        <v>189.9843839616104</v>
       </c>
       <c r="H13" t="n">
-        <v>111.7231559113069</v>
+        <v>114.859692995071</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>114.1743233590097</v>
+        <v>111.1002033632124</v>
       </c>
       <c r="K13" t="n">
-        <v>277.8383027212833</v>
+        <v>271.6900627296886</v>
       </c>
       <c r="L13" t="n">
-        <v>523.7948808474148</v>
+        <v>514.572520860023</v>
       </c>
       <c r="M13" t="n">
-        <v>791.9153974380105</v>
+        <v>779.6189174548216</v>
       </c>
       <c r="N13" t="n">
-        <v>1056.933969721551</v>
+        <v>1041.563369742565</v>
       </c>
       <c r="O13" t="n">
-        <v>1301.467675015591</v>
+        <v>1283.022955040808</v>
       </c>
       <c r="P13" t="n">
-        <v>1503.172779044502</v>
+        <v>1481.653939073921</v>
       </c>
       <c r="Q13" t="n">
-        <v>1588.423913666884</v>
+        <v>1563.830953700506</v>
       </c>
       <c r="R13" t="n">
-        <v>1588.423913666884</v>
+        <v>1563.830953700506</v>
       </c>
       <c r="S13" t="n">
-        <v>1469.098227005164</v>
+        <v>1441.368729955022</v>
       </c>
       <c r="T13" t="n">
-        <v>1316.869572329129</v>
+        <v>1286.003538195223</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.506365553548</v>
+        <v>1286.003538195223</v>
       </c>
       <c r="V13" t="n">
-        <v>1093.017417530103</v>
+        <v>1100.378053088014</v>
       </c>
       <c r="W13" t="n">
-        <v>893.1774126170111</v>
+        <v>897.4015110911585</v>
       </c>
       <c r="X13" t="n">
-        <v>742.5874875557248</v>
+        <v>743.6750489461082</v>
       </c>
       <c r="Y13" t="n">
-        <v>602.9658235280989</v>
+        <v>600.9168478347182</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.95982278663</v>
+        <v>1640.51072824724</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.274718445291</v>
+        <v>1327.689086822137</v>
       </c>
       <c r="D14" t="n">
-        <v>1006.323986817689</v>
+        <v>1022.601818110771</v>
       </c>
       <c r="E14" t="n">
-        <v>687.2308590899647</v>
+        <v>700.3721532992826</v>
       </c>
       <c r="F14" t="n">
-        <v>687.2308590899647</v>
+        <v>363.831574901227</v>
       </c>
       <c r="G14" t="n">
-        <v>357.5585007336986</v>
+        <v>363.831574901227</v>
       </c>
       <c r="H14" t="n">
-        <v>116.9658474559199</v>
+        <v>120.1023845396843</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3022.933227302557</v>
+        <v>3019.796690218794</v>
       </c>
       <c r="T14" t="n">
-        <v>2959.313761679911</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="U14" t="n">
-        <v>2787.051429270241</v>
+        <v>2701.251078356742</v>
       </c>
       <c r="V14" t="n">
-        <v>2528.43501712949</v>
+        <v>2439.498129132227</v>
       </c>
       <c r="W14" t="n">
-        <v>2240.926379253508</v>
+        <v>2148.852954172482</v>
       </c>
       <c r="X14" t="n">
-        <v>1934.964171342296</v>
+        <v>1839.754209177504</v>
       </c>
       <c r="Y14" t="n">
-        <v>1934.964171342296</v>
+        <v>1839.754209177504</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>1634.317313094942</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>300.2524219540495</v>
+        <v>518.2200407465917</v>
       </c>
       <c r="C16" t="n">
-        <v>255.8540257358367</v>
+        <v>428.3687828845476</v>
       </c>
       <c r="D16" t="n">
-        <v>183.7113097940822</v>
+        <v>353.089529859029</v>
       </c>
       <c r="E16" t="n">
-        <v>183.7113097940822</v>
+        <v>277.8845777901982</v>
       </c>
       <c r="F16" t="n">
-        <v>183.7113097940822</v>
+        <v>277.8845777901982</v>
       </c>
       <c r="G16" t="n">
-        <v>183.7113097940822</v>
+        <v>189.9843839616104</v>
       </c>
       <c r="H16" t="n">
-        <v>111.7231559113069</v>
+        <v>114.859692995071</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>114.1743233590097</v>
+        <v>111.1002033632126</v>
       </c>
       <c r="K16" t="n">
-        <v>277.8383027212833</v>
+        <v>271.690062729689</v>
       </c>
       <c r="L16" t="n">
-        <v>523.7948808474148</v>
+        <v>514.5725208600232</v>
       </c>
       <c r="M16" t="n">
-        <v>791.9153974380106</v>
+        <v>779.6189174548217</v>
       </c>
       <c r="N16" t="n">
-        <v>1056.933969721551</v>
+        <v>1041.563369742566</v>
       </c>
       <c r="O16" t="n">
-        <v>1301.467675015591</v>
+        <v>1283.022955040808</v>
       </c>
       <c r="P16" t="n">
-        <v>1503.172779044501</v>
+        <v>1481.653939073921</v>
       </c>
       <c r="Q16" t="n">
-        <v>1588.423913666884</v>
+        <v>1563.830953700507</v>
       </c>
       <c r="R16" t="n">
-        <v>1548.013321455192</v>
+        <v>1520.28382440505</v>
       </c>
       <c r="S16" t="n">
-        <v>1428.687634793472</v>
+        <v>1397.821600659566</v>
       </c>
       <c r="T16" t="n">
-        <v>1276.458980117437</v>
+        <v>1242.456408899767</v>
       </c>
       <c r="U16" t="n">
-        <v>1074.510585515069</v>
+        <v>1037.371477213635</v>
       </c>
       <c r="V16" t="n">
-        <v>892.0216374916237</v>
+        <v>851.7459921064255</v>
       </c>
       <c r="W16" t="n">
-        <v>692.1816325785321</v>
+        <v>648.7694501095698</v>
       </c>
       <c r="X16" t="n">
-        <v>541.5917075172459</v>
+        <v>623.0741993659263</v>
       </c>
       <c r="Y16" t="n">
-        <v>401.97004348962</v>
+        <v>623.0741993659263</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.889542297544</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099302</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803423</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924142</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5546,19 +5546,19 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5680,16 +5680,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838011</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.202162476281</v>
@@ -5698,25 +5698,25 @@
         <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099307</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803437</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924275</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5780,22 +5780,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>346.0196676966397</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M21" t="n">
-        <v>973.7913173233209</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.56928853388</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229973</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222416</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960414</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343054</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655146</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5972,34 +5972,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924184</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6017,7 +6017,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229984</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446693</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>313.6614512960415</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.162273879924</v>
+        <v>1878.582560660094</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.927453670043</v>
+        <v>1580.347740450213</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.427006173899</v>
+        <v>1289.847292954069</v>
       </c>
       <c r="E26" t="n">
-        <v>980.7841625776323</v>
+        <v>982.2044493578019</v>
       </c>
       <c r="F26" t="n">
-        <v>658.8304053947984</v>
+        <v>660.250692174968</v>
       </c>
       <c r="G26" t="n">
-        <v>340.6083311699899</v>
+        <v>342.0286179501597</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4659620236693</v>
+        <v>112.8862488038387</v>
       </c>
       <c r="I26" t="n">
-        <v>68.06952640332246</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J26" t="n">
-        <v>262.371605116131</v>
+        <v>214.13958609232</v>
       </c>
       <c r="K26" t="n">
-        <v>621.3539611435929</v>
+        <v>666.1733038493551</v>
       </c>
       <c r="L26" t="n">
-        <v>1114.674252862122</v>
+        <v>1159.493595567884</v>
       </c>
       <c r="M26" t="n">
-        <v>1660.675152906702</v>
+        <v>1798.545857342038</v>
       </c>
       <c r="N26" t="n">
-        <v>2281.537798273738</v>
+        <v>2326.3571409795</v>
       </c>
       <c r="O26" t="n">
-        <v>2721.577399166066</v>
+        <v>2792.591738174537</v>
       </c>
       <c r="P26" t="n">
-        <v>3069.764891297588</v>
+        <v>3140.779230306058</v>
       </c>
       <c r="Q26" t="n">
-        <v>3347.66181316811</v>
+        <v>3418.67615217658</v>
       </c>
       <c r="R26" t="n">
-        <v>3403.476320166123</v>
+        <v>3474.490659174593</v>
       </c>
       <c r="S26" t="n">
-        <v>3331.903446394362</v>
+        <v>3402.917785402833</v>
       </c>
       <c r="T26" t="n">
-        <v>3331.903446394362</v>
+        <v>3274.357864249438</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.002771629916</v>
+        <v>3113.545815971225</v>
       </c>
       <c r="V26" t="n">
-        <v>3054.836643620622</v>
+        <v>2866.379687961931</v>
       </c>
       <c r="W26" t="n">
-        <v>2778.778289876098</v>
+        <v>2590.321334217407</v>
       </c>
       <c r="X26" t="n">
-        <v>2484.266366096344</v>
+        <v>2485.686652876513</v>
       </c>
       <c r="Y26" t="n">
-        <v>2182.716338304133</v>
+        <v>2184.136625084303</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235228</v>
       </c>
       <c r="C27" t="n">
-        <v>716.7812791034456</v>
+        <v>718.201565883615</v>
       </c>
       <c r="D27" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050953</v>
       </c>
       <c r="E27" t="n">
-        <v>450.2458208358137</v>
+        <v>451.6661076159831</v>
       </c>
       <c r="F27" t="n">
-        <v>325.8140147189455</v>
+        <v>327.2343014991149</v>
       </c>
       <c r="G27" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709794</v>
       </c>
       <c r="H27" t="n">
-        <v>117.4567803914109</v>
+        <v>118.8770671715803</v>
       </c>
       <c r="I27" t="n">
-        <v>68.06952640332246</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J27" t="n">
-        <v>181.1845086230499</v>
+        <v>182.6047954032193</v>
       </c>
       <c r="K27" t="n">
-        <v>181.1845086230499</v>
+        <v>502.3439414654457</v>
       </c>
       <c r="L27" t="n">
-        <v>181.1845086230499</v>
+        <v>985.9100273637589</v>
       </c>
       <c r="M27" t="n">
-        <v>808.9561582497311</v>
+        <v>1231.318605296859</v>
       </c>
       <c r="N27" t="n">
-        <v>1464.73412946029</v>
+        <v>1231.318605296859</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.254412051271</v>
+        <v>1747.83888788784</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.039969824068</v>
+        <v>2153.460256604237</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W27" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.034765654307</v>
+        <v>500.4550524344763</v>
       </c>
       <c r="C28" t="n">
-        <v>423.7703290074846</v>
+        <v>425.1906157876539</v>
       </c>
       <c r="D28" t="n">
-        <v>363.0778971971877</v>
+        <v>364.4981839773573</v>
       </c>
       <c r="E28" t="n">
-        <v>302.4597663435788</v>
+        <v>303.8800531237481</v>
       </c>
       <c r="F28" t="n">
-        <v>240.07451284374</v>
+        <v>241.4947996239094</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7611402303737</v>
+        <v>168.1814270105433</v>
       </c>
       <c r="H28" t="n">
-        <v>106.2232704790563</v>
+        <v>107.6435572592256</v>
       </c>
       <c r="I28" t="n">
-        <v>68.06952640332246</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J28" t="n">
-        <v>131.3471455354584</v>
+        <v>132.7674323156278</v>
       </c>
       <c r="K28" t="n">
-        <v>306.233548374973</v>
+        <v>307.6538351551424</v>
       </c>
       <c r="L28" t="n">
-        <v>563.4125499783459</v>
+        <v>564.8328367585154</v>
       </c>
       <c r="M28" t="n">
-        <v>842.755490046183</v>
+        <v>844.1757768263531</v>
       </c>
       <c r="N28" t="n">
-        <v>1118.996485806965</v>
+        <v>1120.416772587135</v>
       </c>
       <c r="O28" t="n">
-        <v>1374.752614578247</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.153700184023</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.613678883958</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.317989573526</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809118</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.041508558038</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.42313144622</v>
       </c>
       <c r="W28" t="n">
-        <v>856.6131238844168</v>
+        <v>858.0334106645862</v>
       </c>
       <c r="X28" t="n">
-        <v>717.4734829545882</v>
+        <v>718.8937697347576</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.3021030584199</v>
+        <v>590.7223898385893</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1648.019904733604</v>
+        <v>1849.517366499446</v>
       </c>
       <c r="C29" t="n">
-        <v>1349.785084523723</v>
+        <v>1551.282546289565</v>
       </c>
       <c r="D29" t="n">
-        <v>1059.284637027579</v>
+        <v>1260.782098793421</v>
       </c>
       <c r="E29" t="n">
-        <v>751.6417934313115</v>
+        <v>953.1392551971539</v>
       </c>
       <c r="F29" t="n">
-        <v>429.6880362484776</v>
+        <v>631.18549801432</v>
       </c>
       <c r="G29" t="n">
-        <v>111.4659620236693</v>
+        <v>312.9634237895116</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4659620236693</v>
+        <v>83.82105464319034</v>
       </c>
       <c r="I29" t="n">
-        <v>68.06952640332246</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J29" t="n">
-        <v>212.7192993121506</v>
+        <v>214.13958609232</v>
       </c>
       <c r="K29" t="n">
-        <v>571.7016553396124</v>
+        <v>573.1219421197818</v>
       </c>
       <c r="L29" t="n">
-        <v>1065.021947058141</v>
+        <v>1066.442233838311</v>
       </c>
       <c r="M29" t="n">
-        <v>1611.022847102722</v>
+        <v>1612.443133882891</v>
       </c>
       <c r="N29" t="n">
-        <v>2138.834130740184</v>
+        <v>2233.305779249927</v>
       </c>
       <c r="O29" t="n">
-        <v>2671.925093362086</v>
+        <v>2766.396741871828</v>
       </c>
       <c r="P29" t="n">
-        <v>3069.764891297588</v>
+        <v>3140.779230306058</v>
       </c>
       <c r="Q29" t="n">
-        <v>3347.66181316811</v>
+        <v>3418.67615217658</v>
       </c>
       <c r="R29" t="n">
-        <v>3403.476320166123</v>
+        <v>3474.490659174593</v>
       </c>
       <c r="S29" t="n">
-        <v>3362.232371915204</v>
+        <v>3402.917785402833</v>
       </c>
       <c r="T29" t="n">
-        <v>3233.672450761809</v>
+        <v>3274.357864249438</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.860402483595</v>
+        <v>3274.357864249438</v>
       </c>
       <c r="V29" t="n">
-        <v>2825.694274474302</v>
+        <v>3027.191736240144</v>
       </c>
       <c r="W29" t="n">
-        <v>2549.635920729778</v>
+        <v>2751.13338249562</v>
       </c>
       <c r="X29" t="n">
-        <v>2255.123996950023</v>
+        <v>2456.621458715865</v>
       </c>
       <c r="Y29" t="n">
-        <v>1953.573969157812</v>
+        <v>2155.071430923655</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235228</v>
       </c>
       <c r="C30" t="n">
-        <v>716.7812791034456</v>
+        <v>718.201565883615</v>
       </c>
       <c r="D30" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050953</v>
       </c>
       <c r="E30" t="n">
-        <v>450.2458208358137</v>
+        <v>451.6661076159831</v>
       </c>
       <c r="F30" t="n">
-        <v>325.8140147189455</v>
+        <v>327.2343014991149</v>
       </c>
       <c r="G30" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709794</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4567803914109</v>
+        <v>118.8770671715803</v>
       </c>
       <c r="I30" t="n">
-        <v>68.06952640332246</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J30" t="n">
-        <v>181.1845086230499</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="K30" t="n">
-        <v>351.9700663958464</v>
+        <v>389.2289592457183</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9700663958464</v>
+        <v>872.7950451440315</v>
       </c>
       <c r="M30" t="n">
-        <v>979.7417160225276</v>
+        <v>1500.566694770713</v>
       </c>
       <c r="N30" t="n">
-        <v>1635.519687233087</v>
+        <v>1747.83888788784</v>
       </c>
       <c r="O30" t="n">
-        <v>2152.039969824068</v>
+        <v>1747.83888788784</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.039969824068</v>
+        <v>2153.460256604237</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W30" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.0347656543075</v>
+        <v>500.4550524344764</v>
       </c>
       <c r="C31" t="n">
-        <v>423.7703290074851</v>
+        <v>425.190615787654</v>
       </c>
       <c r="D31" t="n">
-        <v>363.0778971971879</v>
+        <v>364.4981839773571</v>
       </c>
       <c r="E31" t="n">
-        <v>302.4597663435791</v>
+        <v>303.8800531237479</v>
       </c>
       <c r="F31" t="n">
-        <v>240.0745128437404</v>
+        <v>241.4947996239092</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7611402303742</v>
+        <v>168.1814270105434</v>
       </c>
       <c r="H31" t="n">
-        <v>106.2232704790565</v>
+        <v>107.6435572592257</v>
       </c>
       <c r="I31" t="n">
-        <v>68.06952640332246</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J31" t="n">
-        <v>131.3471455354583</v>
+        <v>132.7674323156277</v>
       </c>
       <c r="K31" t="n">
-        <v>306.2335483749735</v>
+        <v>307.6538351551429</v>
       </c>
       <c r="L31" t="n">
-        <v>563.4125499783463</v>
+        <v>564.8328367585157</v>
       </c>
       <c r="M31" t="n">
-        <v>842.7554900461837</v>
+        <v>844.1757768263531</v>
       </c>
       <c r="N31" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.416772587135</v>
       </c>
       <c r="O31" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.613678883959</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809119</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.041508558039</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.42313144622</v>
       </c>
       <c r="W31" t="n">
-        <v>856.6131238844173</v>
+        <v>858.0334106645863</v>
       </c>
       <c r="X31" t="n">
-        <v>717.4734829545888</v>
+        <v>718.8937697347577</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.3021030584205</v>
+        <v>590.7223898385894</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6725,10 +6725,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U32" t="n">
         <v>2855.219708188068</v>
@@ -6740,7 +6740,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6774,25 +6774,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P33" t="n">
         <v>2146.089571124861</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K34" t="n">
         <v>143.9541688140574</v>
@@ -6871,37 +6871,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S34" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
@@ -6926,19 +6926,19 @@
         <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6947,34 +6947,34 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840157</v>
@@ -7008,10 +7008,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446702</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924236</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129437</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7190,34 +7190,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369574</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072683</v>
       </c>
       <c r="H40" t="n">
         <v>63.53681638462922</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984009</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924246</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7427,7 +7427,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7439,13 +7439,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7485,7 +7485,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7494,19 +7494,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1778.52287682331</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7631,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7670,22 +7670,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7795,37 +7795,37 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7849,7 +7849,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>250.8077627659885</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7988,13 +7988,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>666.1506338669925</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>486.772353114474</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4837475502015</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>609.4192645785203</v>
+        <v>591.6656798264025</v>
       </c>
       <c r="N3" t="n">
-        <v>602.404255383375</v>
+        <v>479.3575529891502</v>
       </c>
       <c r="O3" t="n">
-        <v>609.7197014180973</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>228.4241991365487</v>
+        <v>580.2513072321872</v>
       </c>
       <c r="N5" t="n">
-        <v>666.1506338669925</v>
+        <v>648.3970491148748</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>538.9159998850076</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>490.1855189497629</v>
       </c>
       <c r="O6" t="n">
-        <v>609.7197014180973</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,10 +8459,10 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>612.8252961895594</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>447.7345042973469</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8538,7 +8538,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>186.0888404416876</v>
+        <v>422.8212561536984</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>609.629233666585</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,13 +9477,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>262.5710112738847</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9492,10 +9492,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>259.5940292362808</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,25 +10188,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>262.1075997502996</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>376.3651575480042</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>290.9809095353983</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P45" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>333.175172614075</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>238.1867267450008</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.29825255428641</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.29809803711296</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>170.539709085574</v>
+        <v>84.53602728160379</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>259.1354197322698</v>
       </c>
       <c r="W11" t="n">
-        <v>252.5424535863035</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.11694009350419</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>87.02119189030194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.26827234394754</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.00648628957539</v>
+        <v>43.11165800250183</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>158.9793359485191</v>
+        <v>203.0340823692711</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>119.6884306620741</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>330.0700009011485</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>329.4808064856298</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>75.62683226558433</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>309.8703088044314</v>
+        <v>312.9754805173579</v>
       </c>
     </row>
     <row r="15">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>41.89316131446651</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.34773083521607</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.09718225498334</v>
+        <v>76.2023539679098</v>
       </c>
       <c r="G16" t="n">
-        <v>83.91602017737547</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>126.7508992873929</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>141.3306191002761</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24494,10 +24494,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>129.6022597786294</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>187.9784700144721</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>28.7745422190419</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.02563626563308</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>838714.5145821122</v>
+        <v>837428.0790712255</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>838714.5145821122</v>
+        <v>837428.0790712255</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>784650.4877756851</v>
+        <v>778754.8763570011</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>784650.4877756853</v>
+        <v>778754.876357001</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852854.1237543743</v>
+        <v>852854.1237543745</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830873.194656552</v>
+        <v>836768.8060752361</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>830873.194656552</v>
+        <v>836768.8060752361</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>486896.8808520632</v>
+        <v>486896.8808520633</v>
       </c>
       <c r="C2" t="n">
-        <v>486896.8808520634</v>
+        <v>486896.8808520633</v>
       </c>
       <c r="D2" t="n">
-        <v>486896.8808520634</v>
+        <v>486896.8808520635</v>
       </c>
       <c r="E2" t="n">
-        <v>444071.3419817235</v>
+        <v>440369.4464397591</v>
       </c>
       <c r="F2" t="n">
-        <v>444071.3419817233</v>
+        <v>440369.446439759</v>
       </c>
       <c r="G2" t="n">
         <v>486896.8808520628</v>
       </c>
       <c r="H2" t="n">
-        <v>486896.8808520628</v>
+        <v>486896.880852063</v>
       </c>
       <c r="I2" t="n">
         <v>486896.8808520627</v>
       </c>
       <c r="J2" t="n">
-        <v>473094.9021162212</v>
+        <v>476796.7976581855</v>
       </c>
       <c r="K2" t="n">
-        <v>473094.902116221</v>
+        <v>476796.7976581855</v>
       </c>
       <c r="L2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.880852063</v>
       </c>
       <c r="M2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="N2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.880852063</v>
       </c>
       <c r="O2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="P2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520629</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173269.3627008159</v>
+        <v>167319.728117932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23104.65434918313</v>
+        <v>28619.45038073345</v>
       </c>
       <c r="E3" t="n">
-        <v>121384.3061055977</v>
+        <v>118900.1687352566</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40647.71827546988</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>38163.58090512873</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
-      </c>
       <c r="J3" t="n">
-        <v>191768.8730399278</v>
+        <v>189284.7356695867</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67258.53677814307</v>
+        <v>69742.67414848421</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.92123989174</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37029.43867432442</v>
+        <v>34545.30130398329</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237678.3429158604</v>
+        <v>241176.6654449997</v>
       </c>
       <c r="C4" t="n">
-        <v>237678.3429158604</v>
+        <v>241176.6654449997</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>163209.5240165947</v>
+        <v>160071.6060205697</v>
       </c>
       <c r="F4" t="n">
-        <v>163209.5240165947</v>
+        <v>160071.6060205697</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="H4" t="n">
         <v>199269.1699682603</v>
@@ -26439,10 +26439,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188080.7174146151</v>
+        <v>191282.9196628495</v>
       </c>
       <c r="K4" t="n">
-        <v>188080.717414615</v>
+        <v>191282.9196628495</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26451,7 +26451,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="N4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="O4" t="n">
         <v>199269.1699682603</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65063.15426577587</v>
+        <v>63983.73631284711</v>
       </c>
       <c r="C5" t="n">
-        <v>65063.15426577587</v>
+        <v>63983.73631284711</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>54159.30171162807</v>
+        <v>53898.25303089405</v>
       </c>
       <c r="F5" t="n">
-        <v>54159.30171162807</v>
+        <v>53898.25303089405</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551965</v>
@@ -26491,25 +26491,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59634.59252030638</v>
+        <v>60714.01047323513</v>
       </c>
       <c r="K5" t="n">
-        <v>59634.59252030637</v>
+        <v>60714.01047323512</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10886.02096961101</v>
+        <v>14416.75097628451</v>
       </c>
       <c r="C6" t="n">
-        <v>184155.3836704271</v>
+        <v>181736.4790942165</v>
       </c>
       <c r="D6" t="n">
-        <v>171184.9126740396</v>
+        <v>165670.1166424894</v>
       </c>
       <c r="E6" t="n">
-        <v>105318.2101479031</v>
+        <v>107327.0948218821</v>
       </c>
       <c r="F6" t="n">
-        <v>226702.5162535006</v>
+        <v>226227.2635571385</v>
       </c>
       <c r="G6" t="n">
-        <v>191294.3606631542</v>
+        <v>188810.223292813</v>
       </c>
       <c r="H6" t="n">
-        <v>229457.9415682828</v>
+        <v>229457.9415682831</v>
       </c>
       <c r="I6" t="n">
-        <v>229457.9415682826</v>
+        <v>229457.9415682827</v>
       </c>
       <c r="J6" t="n">
-        <v>33610.71914137193</v>
+        <v>35477.72413698126</v>
       </c>
       <c r="K6" t="n">
-        <v>225379.5921812996</v>
+        <v>224762.4598065681</v>
       </c>
       <c r="L6" t="n">
-        <v>162199.4047901396</v>
+        <v>159715.2674197989</v>
       </c>
       <c r="M6" t="n">
         <v>183336.0203283911</v>
       </c>
       <c r="N6" t="n">
-        <v>229457.9415682827</v>
+        <v>229457.9415682831</v>
       </c>
       <c r="O6" t="n">
-        <v>192428.5028939583</v>
+        <v>194912.6402642995</v>
       </c>
       <c r="P6" t="n">
-        <v>229457.9415682827</v>
+        <v>229457.941568283</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="F2" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26710,7 +26710,7 @@
         <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26719,7 +26719,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292084</v>
+        <v>499.2785577770907</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0321425292084</v>
+        <v>499.2785577770907</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,37 +26799,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>850.8690800415308</v>
+        <v>868.6226647936484</v>
       </c>
       <c r="K4" t="n">
-        <v>850.8690800415308</v>
+        <v>868.6226647936484</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50.80964784433735</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>47.70447613141091</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
-      </c>
       <c r="J2" t="n">
-        <v>46.28679834290547</v>
+        <v>43.18162662997909</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>84.07317097267884</v>
+        <v>87.17834268560526</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.28679834290553</v>
+        <v>43.18162662997912</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292084</v>
+        <v>499.2785577770907</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.37998374008669</v>
+        <v>92.1335684922044</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.412126269295</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321493</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50.80964784433735</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>47.70447613141091</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.28679834290547</v>
+        <v>43.18162662997909</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.0321425292084</v>
+        <v>499.2785577770907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>74.37998374008669</v>
+        <v>92.1335684922044</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>198.0469255058648</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>187.6044261658529</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>113.4398672154468</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>170.1379457310576</v>
       </c>
     </row>
     <row r="4">
@@ -27540,22 +27540,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>23.65888910788254</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27585,22 +27585,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>36.77630269881814</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>4.052171288235769</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>114.0954626418229</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,13 +27698,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>75.60456589770919</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>113.4398672154467</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>4.908487384565206</v>
+        <v>92.31781312331452</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>267.0491245986136</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>295.0595100891226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28017,19 +28017,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>227.4607133389883</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>101.3216261362188</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="C11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="D11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="E11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="F11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="G11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="H11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="I11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="T11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="U11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="V11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="W11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="X11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="C13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="D13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="E13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="F13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="G13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="I13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="J13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="K13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="L13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="M13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="N13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="O13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="P13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="R13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="S13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="T13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="U13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="V13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="W13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="X13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.65549318417341</v>
+        <v>79.55032147124697</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="C14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="D14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="E14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="F14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="G14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="H14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="I14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="T14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="U14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="V14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="W14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="X14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="C16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="D16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="E16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="F16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="G16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="I16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="J16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="K16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="L16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="M16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="N16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="O16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="P16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="R16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="S16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="T16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="U16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="V16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="W16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="X16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.65549318417344</v>
+        <v>79.55032147124697</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,43 +28752,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634530001</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634529405</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668857</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668868</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>35.71049010668769</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29296,22 +29296,22 @@
         <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>50.15384424644492</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>26.45959222495787</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29545,40 +29545,40 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>50.15384424644486</v>
+        <v>26.45959222495753</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29943,16 +29943,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P34" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30165,16 +30165,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.71049010668862</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733418</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,37 +30378,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529603</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2979821082787</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30639,16 +30639,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>28.01250026485212</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,31 +30876,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>133.1279248236424</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>517.0321425292084</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>336.4709058735488</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>86.42340069328333</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>517.0321425292084</v>
+        <v>499.2785577770907</v>
       </c>
       <c r="N3" t="n">
-        <v>517.0321425292084</v>
+        <v>393.9854401349836</v>
       </c>
       <c r="O3" t="n">
-        <v>517.0321425292084</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>78.69914753882148</v>
+        <v>430.52625563446</v>
       </c>
       <c r="N5" t="n">
-        <v>517.0321425292084</v>
+        <v>499.2785577770907</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>446.5288778356957</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>404.8134060955962</v>
       </c>
       <c r="O6" t="n">
-        <v>517.0321425292084</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,10 +35179,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>463.1002445918322</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35258,7 +35258,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>93.70171839237568</v>
+        <v>330.4341341043865</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58100571201434</v>
+        <v>49.4758339990879</v>
       </c>
       <c r="K13" t="n">
-        <v>165.3171508709834</v>
+        <v>162.2119791580569</v>
       </c>
       <c r="L13" t="n">
-        <v>248.4409880061934</v>
+        <v>245.335816293267</v>
       </c>
       <c r="M13" t="n">
-        <v>270.8288046369653</v>
+        <v>267.723632924039</v>
       </c>
       <c r="N13" t="n">
-        <v>267.6955275591322</v>
+        <v>264.5903558462057</v>
       </c>
       <c r="O13" t="n">
-        <v>247.0037427212523</v>
+        <v>243.8985710083258</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7425293221316</v>
+        <v>200.6373576092051</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.11225719432589</v>
+        <v>83.00708548139946</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>516.9416747776961</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58100571201437</v>
+        <v>49.4758339990879</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3171508709834</v>
+        <v>162.2119791580569</v>
       </c>
       <c r="L16" t="n">
-        <v>248.4409880061934</v>
+        <v>245.335816293267</v>
       </c>
       <c r="M16" t="n">
-        <v>270.8288046369654</v>
+        <v>267.723632924039</v>
       </c>
       <c r="N16" t="n">
-        <v>267.6955275591322</v>
+        <v>264.5903558462057</v>
       </c>
       <c r="O16" t="n">
-        <v>247.0037427212523</v>
+        <v>243.8985710083258</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7425293221316</v>
+        <v>200.6373576092051</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.11225719432592</v>
+        <v>83.00708548139946</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,19 +36048,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087322</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724876</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>172.5106644169664</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36212,10 +36212,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529504</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529611</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934977</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.2647259725339</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>470.9440375707442</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>172.5106644169661</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36841,19 +36841,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>401.8583817530326</v>
+        <v>378.1641297315452</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>172.5106644169662</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37239,16 +37239,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934986</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133958</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184312</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>198.2933506465095</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>216.1858117176441</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P45" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
